--- a/Lab_5_Data.xlsx
+++ b/Lab_5_Data.xlsx
@@ -70,7 +70,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$1:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -139,7 +139,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$1:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -208,23 +208,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69565056"/>
-        <c:axId val="69563520"/>
+        <c:axId val="61717888"/>
+        <c:axId val="73323648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69565056"/>
+        <c:axId val="61717888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69563520"/>
+        <c:crossAx val="73323648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69563520"/>
+        <c:axId val="73323648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -232,7 +232,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69565056"/>
+        <c:crossAx val="61717888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -245,7 +245,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -268,66 +268,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>697</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>919</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -337,88 +277,28 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1521</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>53361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7569</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95481</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44521</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>116281</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>136161</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>145924</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>153664</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>163216</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>172225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>174724</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>178084</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>178929</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>190096</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190969</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>190969</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81951360"/>
-        <c:axId val="81949824"/>
+        <c:axId val="73351552"/>
+        <c:axId val="73353088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81951360"/>
+        <c:axId val="73351552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81949824"/>
+        <c:crossAx val="73353088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81949824"/>
+        <c:axId val="73353088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +306,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81951360"/>
+        <c:crossAx val="73351552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -439,7 +319,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -795,17 +675,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0.4</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -813,143 +701,143 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>231</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>309</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>211</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B15">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="B18">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>320</v>
+        <v>697</v>
       </c>
       <c r="B19">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>697</v>
+        <v>919</v>
       </c>
       <c r="B20">
         <v>437</v>
@@ -957,190 +845,26 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>919</v>
+        <v>160</v>
       </c>
       <c r="B21">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>0.4</v>
-      </c>
-      <c r="B24">
-        <f>B2^2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1.2</v>
-      </c>
-      <c r="B25">
-        <f>B3^2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <f>B4^2</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <f>B5^2</f>
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <f>B6^2</f>
-        <v>53361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <f>B7^2</f>
-        <v>7569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <f>B8^2</f>
-        <v>95481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <f>B9^2</f>
-        <v>44521</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>22</v>
-      </c>
-      <c r="B32">
-        <f>B10^2</f>
-        <v>116281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <f>B11^2</f>
-        <v>136161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <f>B12^2</f>
-        <v>145924</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <f>B13^2</f>
-        <v>153664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>52</v>
-      </c>
-      <c r="B36">
-        <f>B14^2</f>
-        <v>163216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>69</v>
-      </c>
-      <c r="B37">
-        <f>B15^2</f>
-        <v>172225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>80</v>
-      </c>
-      <c r="B38">
-        <f>B16^2</f>
-        <v>174724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>96</v>
-      </c>
-      <c r="B39">
-        <f>B17^2</f>
-        <v>178084</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>113</v>
-      </c>
-      <c r="B40">
-        <f>B18^2</f>
-        <v>178929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>320</v>
-      </c>
-      <c r="B41">
-        <f>B19^2</f>
-        <v>190096</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>697</v>
-      </c>
-      <c r="B42">
-        <f>B20^2</f>
-        <v>190969</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>919</v>
-      </c>
-      <c r="B43">
-        <f>B21^2</f>
-        <v>190969</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>177</v>
+      </c>
+      <c r="B22">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>190</v>
+      </c>
+      <c r="B23">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
